--- a/Assets/GameMain/Dialog/Resources/Excel/Rent_1.xlsx
+++ b/Assets/GameMain/Dialog/Resources/Excel/Rent_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="25600" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="dialog" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
   <si>
     <t>块类型</t>
   </si>
@@ -35,9 +35,6 @@
     <t>块序号</t>
   </si>
   <si>
-    <t>序号</t>
-  </si>
-  <si>
     <t>角色ID（左）</t>
   </si>
   <si>
@@ -65,7 +62,7 @@
     <t>角色动效（右）</t>
   </si>
   <si>
-    <t>主要角色</t>
+    <t>高亮显示</t>
   </si>
   <si>
     <t>角色名称（左）</t>
@@ -86,6 +83,9 @@
     <t>connent</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>cat</t>
   </si>
   <si>
@@ -104,6 +104,12 @@
     <t>你拿出准备好的现金交给了他。</t>
   </si>
   <si>
+    <t>测试效果</t>
+  </si>
+  <si>
+    <t>测试效果2</t>
+  </si>
+  <si>
     <t>“那么，这就是最后一笔款项了”</t>
   </si>
   <si>
@@ -116,28 +122,19 @@
     <t>“祝你成功！”</t>
   </si>
   <si>
-    <t>2_1-2_2</t>
+    <t>2001-2002</t>
   </si>
   <si>
     <t>谢谢</t>
   </si>
   <si>
-    <t>3_1</t>
-  </si>
-  <si>
     <t>是的</t>
   </si>
   <si>
-    <t>5_1</t>
+    <t>原来如此</t>
   </si>
   <si>
     <t>coffee</t>
-  </si>
-  <si>
-    <t>6_1</t>
-  </si>
-  <si>
-    <t>原来如此</t>
   </si>
 </sst>
 </file>
@@ -753,8 +750,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1285,995 +1285,968 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="66.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="66.3727272727273" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="1">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1001</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>2</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="1">
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1002</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="1">
+      <c r="N5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1003</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
         <v>2</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="1">
+      <c r="N6" s="2"/>
+      <c r="O6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" s="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1008</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8" s="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1009</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1004</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="1">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>29</v>
+      <c r="O9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1010</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
         <v>1</v>
       </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>31</v>
+      <c r="N10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1011</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
         <v>1</v>
       </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>33</v>
+      <c r="N11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1005</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
         <v>1</v>
       </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12" s="1">
-        <v>5</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P12" s="1">
+      <c r="N12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="1">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1006</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0</v>
-      </c>
-      <c r="M13" s="1">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" s="1">
+      <c r="N13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="1">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1007</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
         <v>1</v>
       </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1" t="s">
+      <c r="N14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>35</v>
+      <c r="P14" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="1">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="C15" s="2">
+        <v>2001</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="1" t="s">
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P15" s="1">
-        <v>0</v>
+      <c r="P15" s="2">
+        <v>3001</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="1">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>5</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2002</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>2</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>35</v>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="2">
+        <v>4001</v>
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="1">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3001</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P17" s="1">
+      <c r="N17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="1">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3002</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1">
-        <v>2</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0</v>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="2">
+        <v>5001</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="1">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4001</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
-        <v>0</v>
-      </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="1">
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>2</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="1">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>6</v>
-      </c>
-      <c r="C20" s="1">
-        <v>4</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4002</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="1">
-        <v>0</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0</v>
-      </c>
-      <c r="M20" s="1">
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P20" s="2">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5001</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
         <v>2</v>
       </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P20" s="1">
+      <c r="N21" s="2"/>
+      <c r="O21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>6001</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>5</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>7001</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23" s="2">
         <v>0</v>
       </c>
     </row>

--- a/Assets/GameMain/Dialog/Resources/Excel/Rent_1.xlsx
+++ b/Assets/GameMain/Dialog/Resources/Excel/Rent_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12200"/>
+    <workbookView windowWidth="25600" windowHeight="10600"/>
   </bookViews>
   <sheets>
     <sheet name="dialog" sheetId="1" r:id="rId1"/>
@@ -750,11 +750,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1288,7 +1285,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A15" sqref="$A15:$XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1298,955 +1295,918 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="2:16">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:16">
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
+    <row r="4" spans="2:16">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
         <v>1001</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
+    <row r="5" spans="2:16">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
         <v>1002</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
         <v>1</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
+    <row r="6" spans="2:16">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
         <v>1003</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
         <v>2</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2" t="s">
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2">
+    <row r="7" spans="2:16">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>1008</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2">
+    <row r="8" spans="2:16">
+      <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1009</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
+    <row r="9" spans="2:16">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
         <v>1004</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
         <v>1</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
+    <row r="10" spans="2:16">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
         <v>1010</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
         <v>1</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
+    <row r="11" spans="2:16">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
         <v>1011</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
         <v>1</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
+    <row r="12" spans="2:16">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
         <v>1005</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
         <v>1</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
+    <row r="13" spans="2:16">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
         <v>1006</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
         <v>1</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
+    <row r="14" spans="2:16">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
         <v>1007</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
         <v>1</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="P14" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2">
+    <row r="15" spans="2:16">
+      <c r="B15" s="1">
         <v>1</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>2001</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
         <v>1</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2" t="s">
+      <c r="N15" s="1"/>
+      <c r="O15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="1">
         <v>3001</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2">
+    <row r="16" spans="2:16">
+      <c r="B16" s="1">
         <v>1</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>2002</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
         <v>1</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2" t="s">
+      <c r="N16" s="1"/>
+      <c r="O16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="1">
         <v>4001</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
+    <row r="17" spans="2:16">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
         <v>3001</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
         <v>1</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2" t="s">
+      <c r="N17" s="1"/>
+      <c r="O17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
+    <row r="18" spans="2:16">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
         <v>3002</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="s">
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2" t="s">
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="1">
         <v>5001</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
+    <row r="19" spans="2:16">
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
         <v>4001</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="s">
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
         <v>2</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2" t="s">
+      <c r="N19" s="1"/>
+      <c r="O19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P19" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
+    <row r="20" spans="2:16">
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
         <v>4002</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="s">
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2" t="s">
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P20" s="2">
+      <c r="P20" s="1">
         <v>5001</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
+    <row r="21" spans="2:16">
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
         <v>5001</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="s">
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
         <v>2</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2" t="s">
+      <c r="N21" s="1"/>
+      <c r="O21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="2">
+      <c r="P21" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2">
+    <row r="22" spans="2:16">
+      <c r="B22" s="1">
         <v>2</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>6001</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1">
         <v>1</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="1">
         <v>5</v>
       </c>
-      <c r="M22" s="2">
-        <v>0</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2" t="s">
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2">
+    <row r="23" spans="2:16">
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
         <v>7001</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2" t="s">
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2" t="s">
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P23" s="2">
+      <c r="P23" s="1">
         <v>0</v>
       </c>
     </row>
